--- a/ColumnsIdentification.xlsx
+++ b/ColumnsIdentification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karangoel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AD2E6BD-0801-4FC6-9EC1-0FB43450333D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2956C4C-89FB-4687-93AC-A8D55CE002F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8E0FB123-13E2-4DE0-9C0A-8982A1F797F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Column Name</t>
   </si>
@@ -240,6 +240,27 @@
   </si>
   <si>
     <t>school trips</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>food nutrition</t>
+  </si>
+  <si>
+    <t>Clean water</t>
+  </si>
+  <si>
+    <t>clean air</t>
+  </si>
+  <si>
+    <t>source of water</t>
   </si>
 </sst>
 </file>
@@ -255,12 +276,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -275,8 +302,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,15 +619,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441D6088-E222-4739-AE73-A3296E13BD5B}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -628,10 +657,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -639,7 +668,7 @@
       <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -647,13 +676,41 @@
       <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +723,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -820,7 +877,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB6B6B4-3E11-4F52-BB05-C87A7735ED49}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -912,6 +969,11 @@
         <v>39</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
